--- a/biology/Histoire de la zoologie et de la botanique/Coleman_Jett_Goin/Coleman_Jett_Goin.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Coleman_Jett_Goin/Coleman_Jett_Goin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coleman Jett Goin est un herpétologiste américain, né le 25 février 1911 à Gainesville, Floride et mort le 12 mai 1986 à Flagstaff, Arizona.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à l’université de Pittsburgh seulement à partir de 1935. Il part l’année suivante à l’université de Floride où il obtient son Bachelor of Sciences (1939), son Master of Sciences (1941) et son Ph. D. (1946). C’est durant ses études à Pittsburgh qu’il commence à s’intéresser à l’herpétologie et devient bénévole au Muséum Carnegie. Il continuera à y travailler tous les étés durant ses études. Il conduit son doctorat sous le limnologiste de James Speed Rogers (1892-1955).
 Après sa thèse, il est employé par l’université de Floride comme assistant en zoologie puis professeur en 1956. Il prend sa retraite en 1971 mais, après son départ pour Flagstaff en Arizona, il travaille en association avec le Museum of Northern Arizona.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1947 : Studies on the life history of Eleutherodactylus ricordii planirostris (Cope) in Florida, with special reference to the local distribution of an allelomorphic color pattern (University of Florida Press, Gainesville).
 1955 : avec Walter Auffenberg (1928-2004), « The fossil salamanders of the family Sirenidae » (The Museum, Cambridge).
@@ -586,7 +602,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles : 202 p.  (ISBN 0-916984-19-2)
  Portail de l’histoire de la zoologie et de la botanique   Portail de l’herpétologie                    </t>
